--- a/medicine/Mort/Cimetière_de_Turku/Cimetière_de_Turku.xlsx
+++ b/medicine/Mort/Cimetière_de_Turku/Cimetière_de_Turku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Turku</t>
+          <t>Cimetière_de_Turku</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Cimetière de Turku (en finnois : Turun hautausmaa) est situé à Turku en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Turku</t>
+          <t>Cimetière_de_Turku</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière situé dans le quartier de Vasaramäki est conçu par Charles Bassi et inauguré en 1807
 Sa superficie actuelle est de 59,2 hectares et il héberge 45 000 tombes.
@@ -519,7 +533,7 @@
 En 1915, un enclos pour la paroisse musulmane de Finlande (fi) et en 1936 un enclos catholique sont mis en service.
 Le cimetière possède deux chapelles funéraires classées : la chapelle de la Résurrection conçue par Erik Bryggman et la chapelle de la sainte croix conçue par Pekka Pitkänen.
 À proximité de la chapelle de la Résurrection est érigé le monument aux héros (fi) conçu par Erik Bryggman.
-La Direction des musées de Finlande a classé le cimetière parmi les sites culturels construits d'intérêt national[1].
+La Direction des musées de Finlande a classé le cimetière parmi les sites culturels construits d'intérêt national.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Turku</t>
+          <t>Cimetière_de_Turku</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnalités reposant au cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arvo Ahola,
